--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_waiver_list.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_waiver_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/OpenHW Group/RTL_freeze_v2_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scorpion\Scorpion\kagao0\LocalStock\bnl\cv32\repo\program\update_cv32e40pv2_rpt_WW23\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="989" documentId="13_ncr:40009_{FA898899-A122-4FBE-A95A-CEA7C721CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E462B9EF-F06D-4066-8A57-749B9592602E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490E8BA-2403-488A-BEC9-9C36C85971D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="310">
   <si>
     <t>code cov waiver</t>
   </si>
@@ -480,9 +480,6 @@
     <t>HWLoop1 cannot be nested in HWLoop0.</t>
   </si>
   <si>
-    <t>No case when ID not ready for single stepped instruction.</t>
-  </si>
-  <si>
     <t>/uvmt_cv32e40p_tb/dut_wrap/cv32e40p_tb_wrapper_i/cv32e40p_top_i/core_i/ex_stage_i/gen_apu/apu_disp_i</t>
   </si>
   <si>
@@ -961,6 +958,21 @@
   </si>
   <si>
     <t>We never have result_fmt_is_int for this op group. This is the ADMUL opGroup and result_fmt_is_int can only be asserted for the CONV opGroup.</t>
+  </si>
+  <si>
+    <t>When removing the lines, SLEC app of JasperGold was not able to find counter-example showing a mismach on all the output between the original and the modified file.</t>
+  </si>
+  <si>
+    <t>AllFalse condition proven as unreacheable with a specific assertion using Siemens EDA QuestaFormal.</t>
+  </si>
+  <si>
+    <t>Specific condition proven as unreacheable with a specific assertion using Siemens EDA QuestaFormal.</t>
+  </si>
+  <si>
+    <t>feccondrow 1241 5</t>
+  </si>
+  <si>
+    <t>feccondrow 1241 10</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1588,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1641,11 +1653,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2095,8 +2102,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A2:F166" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A2:F166" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A2:F172" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A2:F172" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Line" dataDxfId="55"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Code coverage type" dataDxfId="54"/>
@@ -2518,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,7 +2863,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -2870,7 +2877,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34">
         <v>31</v>
@@ -2882,15 +2889,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -2901,7 +2908,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
@@ -2912,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
@@ -2923,7 +2930,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
         <v>125</v>
@@ -2934,7 +2941,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" t="s">
         <v>125</v>
@@ -2945,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
         <v>125</v>
@@ -2956,7 +2963,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
         <v>125</v>
@@ -2967,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
         <v>125</v>
@@ -2978,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -2989,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -3000,7 +3007,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
         <v>125</v>
@@ -3011,7 +3018,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" t="s">
         <v>125</v>
@@ -3022,7 +3029,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" t="s">
         <v>125</v>
@@ -3033,7 +3040,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
         <v>125</v>
@@ -3044,7 +3051,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
         <v>125</v>
@@ -3055,7 +3062,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
         <v>125</v>
@@ -3066,7 +3073,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
         <v>125</v>
@@ -3077,7 +3084,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
         <v>125</v>
@@ -3088,7 +3095,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
         <v>125</v>
@@ -3099,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
         <v>125</v>
@@ -3110,7 +3117,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D55" t="s">
         <v>125</v>
@@ -3121,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
         <v>125</v>
@@ -3132,7 +3139,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
         <v>125</v>
@@ -3140,13 +3147,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B58">
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D58" t="s">
         <v>125</v>
@@ -3157,7 +3164,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
         <v>125</v>
@@ -3168,7 +3175,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
         <v>125</v>
@@ -3179,7 +3186,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
         <v>125</v>
@@ -3190,7 +3197,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
         <v>125</v>
@@ -3201,7 +3208,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
         <v>125</v>
@@ -3212,7 +3219,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
         <v>125</v>
@@ -3223,7 +3230,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
         <v>125</v>
@@ -3231,13 +3238,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B66">
         <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
         <v>125</v>
@@ -3248,7 +3255,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D67" t="s">
         <v>125</v>
@@ -3259,7 +3266,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
         <v>125</v>
@@ -3270,7 +3277,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D69" t="s">
         <v>125</v>
@@ -3281,7 +3288,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
         <v>125</v>
@@ -3292,7 +3299,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
         <v>125</v>
@@ -3303,7 +3310,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D72" t="s">
         <v>125</v>
@@ -3314,7 +3321,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D73" t="s">
         <v>125</v>
@@ -3325,7 +3332,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D74" t="s">
         <v>125</v>
@@ -3400,10 +3407,10 @@
     </row>
     <row r="84" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -3424,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,7 +3471,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>129</v>
@@ -6291,9 +6298,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>675</v>
+        <v>632</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>38</v>
@@ -6302,13 +6309,133 @@
         <v>57</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F166" s="3">
         <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>642</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F167" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>675</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F168" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>1187</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F169" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>1241</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F171" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>1241</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F172" s="3">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6364,7 +6491,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>129</v>
@@ -7309,7 +7436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC713BF-A35D-42F8-93DB-E92222AF1DAF}">
   <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
@@ -7347,7 +7474,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>129</v>
@@ -7582,10 +7709,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16"/>
       <c r="F16">
@@ -7600,10 +7727,10 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17"/>
       <c r="F17">
@@ -7618,10 +7745,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18"/>
       <c r="F18">
@@ -7636,10 +7763,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19"/>
       <c r="F19">
@@ -7654,10 +7781,10 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20"/>
       <c r="F20">
@@ -7672,10 +7799,10 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21"/>
       <c r="F21">
@@ -7690,10 +7817,10 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22"/>
       <c r="F22">
@@ -7708,10 +7835,10 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -7728,10 +7855,10 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -7748,10 +7875,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25"/>
       <c r="F25">
@@ -7766,10 +7893,10 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26"/>
       <c r="F26">
@@ -7784,10 +7911,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -7804,10 +7931,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28"/>
       <c r="F28">
@@ -7822,10 +7949,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29"/>
       <c r="F29">
@@ -7840,10 +7967,10 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30"/>
       <c r="F30">
@@ -7858,10 +7985,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31"/>
       <c r="F31">
@@ -7876,10 +8003,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32"/>
       <c r="F32">
@@ -7894,10 +8021,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33"/>
       <c r="F33">
@@ -7912,10 +8039,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34"/>
       <c r="F34">
@@ -7930,10 +8057,10 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="1">
         <v>55</v>
@@ -7947,10 +8074,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="1">
         <v>55</v>
@@ -7964,10 +8091,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="1">
         <v>55</v>
@@ -7981,13 +8108,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38">
         <v>34</v>
@@ -8001,10 +8128,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39"/>
       <c r="F39">
@@ -8019,10 +8146,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40"/>
       <c r="F40">
@@ -8037,10 +8164,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41"/>
       <c r="F41">
@@ -8055,10 +8182,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42"/>
       <c r="F42">
@@ -8073,10 +8200,10 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43"/>
       <c r="F43">
@@ -8091,10 +8218,10 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
         <v>231</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
       </c>
       <c r="E44"/>
       <c r="F44">
@@ -8109,10 +8236,10 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
         <v>231</v>
-      </c>
-      <c r="D45" t="s">
-        <v>232</v>
       </c>
       <c r="E45"/>
       <c r="F45">
@@ -8127,10 +8254,10 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46"/>
       <c r="F46">
@@ -8145,10 +8272,10 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E47"/>
       <c r="F47">
@@ -8162,11 +8289,11 @@
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>233</v>
+      <c r="C48" t="s">
+        <v>232</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" s="1">
         <v>65</v>
@@ -8180,10 +8307,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
         <v>234</v>
-      </c>
-      <c r="D49" t="s">
-        <v>235</v>
       </c>
       <c r="E49"/>
       <c r="F49">
@@ -8198,10 +8325,10 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" t="s">
         <v>234</v>
-      </c>
-      <c r="D50" t="s">
-        <v>235</v>
       </c>
       <c r="E50"/>
       <c r="F50">
@@ -8216,10 +8343,10 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51"/>
       <c r="F51">
@@ -8234,10 +8361,10 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52"/>
       <c r="F52">
@@ -8252,10 +8379,10 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53"/>
       <c r="F53">
@@ -8270,10 +8397,10 @@
         <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E54"/>
       <c r="F54">
@@ -8288,10 +8415,10 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E55"/>
       <c r="F55">
@@ -8306,10 +8433,10 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E56"/>
       <c r="F56">
@@ -8324,10 +8451,10 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57"/>
       <c r="F57">
@@ -8342,10 +8469,10 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58"/>
       <c r="F58">
@@ -8360,10 +8487,10 @@
         <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E59"/>
       <c r="F59">
@@ -8378,10 +8505,10 @@
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60"/>
       <c r="F60">
@@ -8396,10 +8523,10 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E61"/>
       <c r="F61">
@@ -8414,10 +8541,10 @@
         <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E62"/>
       <c r="F62">
@@ -8432,10 +8559,10 @@
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63"/>
       <c r="F63">
@@ -8450,10 +8577,10 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E64"/>
       <c r="F64">
@@ -8468,10 +8595,10 @@
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E65"/>
       <c r="F65">
@@ -8486,10 +8613,10 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E66"/>
       <c r="F66">
@@ -8504,10 +8631,10 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E67"/>
       <c r="F67">
@@ -8522,10 +8649,10 @@
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E68"/>
       <c r="F68">
@@ -8540,10 +8667,10 @@
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E69"/>
       <c r="F69">
@@ -8558,10 +8685,10 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70"/>
       <c r="F70">
@@ -8576,10 +8703,10 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E71"/>
       <c r="F71">
@@ -8594,10 +8721,10 @@
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -8612,10 +8739,10 @@
         <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -8630,10 +8757,10 @@
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74"/>
       <c r="F74">
@@ -8648,10 +8775,10 @@
         <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E75"/>
       <c r="F75">
@@ -8666,10 +8793,10 @@
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E76"/>
       <c r="F76">
@@ -8684,10 +8811,10 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E77"/>
       <c r="F77">
@@ -8702,10 +8829,10 @@
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E78"/>
       <c r="F78">
@@ -8720,10 +8847,10 @@
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E79"/>
       <c r="F79">
@@ -8738,10 +8865,10 @@
         <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E80"/>
       <c r="F80">
@@ -8756,10 +8883,10 @@
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E81"/>
       <c r="F81">
@@ -8774,10 +8901,10 @@
         <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82"/>
       <c r="F82">
@@ -8792,10 +8919,10 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83"/>
       <c r="F83">
@@ -8810,10 +8937,10 @@
         <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E84"/>
       <c r="F84">
@@ -8828,10 +8955,10 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E85"/>
       <c r="F85">
@@ -8846,10 +8973,10 @@
         <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E86"/>
       <c r="F86">
@@ -8864,10 +8991,10 @@
         <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E87"/>
       <c r="F87">
@@ -8882,10 +9009,10 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E88"/>
       <c r="F88">
@@ -8900,10 +9027,10 @@
         <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E89"/>
       <c r="F89">
@@ -8918,10 +9045,10 @@
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E90"/>
       <c r="F90">
@@ -8936,10 +9063,10 @@
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E91"/>
       <c r="F91">
@@ -8954,10 +9081,10 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E92"/>
       <c r="F92">
@@ -8972,10 +9099,10 @@
         <v>43</v>
       </c>
       <c r="C93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
         <v>249</v>
-      </c>
-      <c r="D93" t="s">
-        <v>250</v>
       </c>
       <c r="E93"/>
       <c r="F93">
@@ -8990,10 +9117,10 @@
         <v>38</v>
       </c>
       <c r="C94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" t="s">
         <v>249</v>
-      </c>
-      <c r="D94" t="s">
-        <v>250</v>
       </c>
       <c r="E94"/>
       <c r="F94">
@@ -9008,10 +9135,10 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" t="s">
         <v>249</v>
-      </c>
-      <c r="D95" t="s">
-        <v>250</v>
       </c>
       <c r="E95"/>
       <c r="F95">
@@ -9026,10 +9153,10 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" t="s">
         <v>249</v>
-      </c>
-      <c r="D96" t="s">
-        <v>250</v>
       </c>
       <c r="E96"/>
       <c r="F96">
@@ -9044,10 +9171,10 @@
         <v>35</v>
       </c>
       <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
         <v>249</v>
-      </c>
-      <c r="D97" t="s">
-        <v>250</v>
       </c>
       <c r="E97"/>
       <c r="F97">
@@ -9062,10 +9189,10 @@
         <v>43</v>
       </c>
       <c r="C98" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" t="s">
         <v>249</v>
-      </c>
-      <c r="D98" t="s">
-        <v>250</v>
       </c>
       <c r="E98"/>
       <c r="F98">
@@ -9080,10 +9207,10 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
         <v>249</v>
-      </c>
-      <c r="D99" t="s">
-        <v>250</v>
       </c>
       <c r="E99"/>
       <c r="F99">
@@ -9098,10 +9225,10 @@
         <v>35</v>
       </c>
       <c r="C100" t="s">
+        <v>248</v>
+      </c>
+      <c r="D100" t="s">
         <v>249</v>
-      </c>
-      <c r="D100" t="s">
-        <v>250</v>
       </c>
       <c r="E100"/>
       <c r="F100">
@@ -9116,10 +9243,10 @@
         <v>35</v>
       </c>
       <c r="C101" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" t="s">
         <v>249</v>
-      </c>
-      <c r="D101" t="s">
-        <v>250</v>
       </c>
       <c r="E101"/>
       <c r="F101">
@@ -9134,10 +9261,10 @@
         <v>35</v>
       </c>
       <c r="C102" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" t="s">
         <v>249</v>
-      </c>
-      <c r="D102" t="s">
-        <v>250</v>
       </c>
       <c r="E102"/>
       <c r="F102">
@@ -9152,10 +9279,10 @@
         <v>43</v>
       </c>
       <c r="C103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" t="s">
         <v>249</v>
-      </c>
-      <c r="D103" t="s">
-        <v>250</v>
       </c>
       <c r="E103"/>
       <c r="F103">
@@ -9170,10 +9297,10 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" t="s">
         <v>249</v>
-      </c>
-      <c r="D104" t="s">
-        <v>250</v>
       </c>
       <c r="E104"/>
       <c r="F104">
@@ -9188,10 +9315,10 @@
         <v>35</v>
       </c>
       <c r="C105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" t="s">
         <v>249</v>
-      </c>
-      <c r="D105" t="s">
-        <v>250</v>
       </c>
       <c r="E105"/>
       <c r="F105">
@@ -9206,10 +9333,10 @@
         <v>35</v>
       </c>
       <c r="C106" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
         <v>249</v>
-      </c>
-      <c r="D106" t="s">
-        <v>250</v>
       </c>
       <c r="E106"/>
       <c r="F106">
@@ -9224,10 +9351,10 @@
         <v>35</v>
       </c>
       <c r="C107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" t="s">
         <v>249</v>
-      </c>
-      <c r="D107" t="s">
-        <v>250</v>
       </c>
       <c r="E107"/>
       <c r="F107">
@@ -9242,10 +9369,10 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
         <v>249</v>
-      </c>
-      <c r="D108" t="s">
-        <v>250</v>
       </c>
       <c r="E108"/>
       <c r="F108">
@@ -9260,10 +9387,10 @@
         <v>38</v>
       </c>
       <c r="C109" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" t="s">
         <v>249</v>
-      </c>
-      <c r="D109" t="s">
-        <v>250</v>
       </c>
       <c r="E109"/>
       <c r="F109">
@@ -9278,10 +9405,10 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" t="s">
         <v>249</v>
-      </c>
-      <c r="D110" t="s">
-        <v>250</v>
       </c>
       <c r="E110"/>
       <c r="F110">
@@ -9296,10 +9423,10 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" t="s">
         <v>249</v>
-      </c>
-      <c r="D111" t="s">
-        <v>250</v>
       </c>
       <c r="E111"/>
       <c r="F111">
@@ -9314,10 +9441,10 @@
         <v>35</v>
       </c>
       <c r="C112" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" t="s">
         <v>249</v>
-      </c>
-      <c r="D112" t="s">
-        <v>250</v>
       </c>
       <c r="E112"/>
       <c r="F112">
@@ -9332,10 +9459,10 @@
         <v>35</v>
       </c>
       <c r="C113" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" t="s">
         <v>251</v>
-      </c>
-      <c r="D113" t="s">
-        <v>252</v>
       </c>
       <c r="E113"/>
       <c r="F113">
@@ -9350,10 +9477,10 @@
         <v>38</v>
       </c>
       <c r="C114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
         <v>251</v>
-      </c>
-      <c r="D114" t="s">
-        <v>252</v>
       </c>
       <c r="E114"/>
       <c r="F114">
@@ -9368,10 +9495,10 @@
         <v>35</v>
       </c>
       <c r="C115" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" t="s">
         <v>251</v>
-      </c>
-      <c r="D115" t="s">
-        <v>252</v>
       </c>
       <c r="E115"/>
       <c r="F115">
@@ -9386,10 +9513,10 @@
         <v>38</v>
       </c>
       <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
         <v>251</v>
-      </c>
-      <c r="D116" t="s">
-        <v>252</v>
       </c>
       <c r="E116"/>
       <c r="F116">
@@ -9404,10 +9531,10 @@
         <v>35</v>
       </c>
       <c r="C117" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" t="s">
         <v>251</v>
-      </c>
-      <c r="D117" t="s">
-        <v>252</v>
       </c>
       <c r="E117"/>
       <c r="F117">
@@ -9422,10 +9549,10 @@
         <v>38</v>
       </c>
       <c r="C118" t="s">
+        <v>250</v>
+      </c>
+      <c r="D118" t="s">
         <v>251</v>
-      </c>
-      <c r="D118" t="s">
-        <v>252</v>
       </c>
       <c r="E118"/>
       <c r="F118">
@@ -9440,10 +9567,10 @@
         <v>35</v>
       </c>
       <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="s">
         <v>251</v>
-      </c>
-      <c r="D119" t="s">
-        <v>252</v>
       </c>
       <c r="E119"/>
       <c r="F119">
@@ -9458,10 +9585,10 @@
         <v>38</v>
       </c>
       <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" t="s">
         <v>251</v>
-      </c>
-      <c r="D120" t="s">
-        <v>252</v>
       </c>
       <c r="E120"/>
       <c r="F120">
@@ -9476,10 +9603,10 @@
         <v>35</v>
       </c>
       <c r="C121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121" t="s">
         <v>251</v>
-      </c>
-      <c r="D121" t="s">
-        <v>252</v>
       </c>
       <c r="E121"/>
       <c r="F121">
@@ -9494,10 +9621,10 @@
         <v>38</v>
       </c>
       <c r="C122" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" t="s">
         <v>251</v>
-      </c>
-      <c r="D122" t="s">
-        <v>252</v>
       </c>
       <c r="E122"/>
       <c r="F122">
@@ -9512,10 +9639,10 @@
         <v>35</v>
       </c>
       <c r="C123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" t="s">
         <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>252</v>
       </c>
       <c r="E123"/>
       <c r="F123">
@@ -9530,10 +9657,10 @@
         <v>38</v>
       </c>
       <c r="C124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" t="s">
         <v>251</v>
-      </c>
-      <c r="D124" t="s">
-        <v>252</v>
       </c>
       <c r="E124"/>
       <c r="F124">
@@ -9548,10 +9675,10 @@
         <v>35</v>
       </c>
       <c r="C125" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" t="s">
         <v>251</v>
-      </c>
-      <c r="D125" t="s">
-        <v>252</v>
       </c>
       <c r="E125"/>
       <c r="F125">
@@ -9566,10 +9693,10 @@
         <v>38</v>
       </c>
       <c r="C126" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" t="s">
         <v>251</v>
-      </c>
-      <c r="D126" t="s">
-        <v>252</v>
       </c>
       <c r="E126"/>
       <c r="F126">
@@ -9584,10 +9711,10 @@
         <v>35</v>
       </c>
       <c r="C127" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" t="s">
         <v>251</v>
-      </c>
-      <c r="D127" t="s">
-        <v>252</v>
       </c>
       <c r="E127"/>
       <c r="F127">
@@ -9602,10 +9729,10 @@
         <v>38</v>
       </c>
       <c r="C128" t="s">
+        <v>250</v>
+      </c>
+      <c r="D128" t="s">
         <v>251</v>
-      </c>
-      <c r="D128" t="s">
-        <v>252</v>
       </c>
       <c r="E128"/>
       <c r="F128">
@@ -9620,10 +9747,10 @@
         <v>35</v>
       </c>
       <c r="C129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
         <v>251</v>
-      </c>
-      <c r="D129" t="s">
-        <v>252</v>
       </c>
       <c r="E129"/>
       <c r="F129">
@@ -9638,10 +9765,10 @@
         <v>38</v>
       </c>
       <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
         <v>251</v>
-      </c>
-      <c r="D130" t="s">
-        <v>252</v>
       </c>
       <c r="E130"/>
       <c r="F130">
@@ -9656,10 +9783,10 @@
         <v>35</v>
       </c>
       <c r="C131" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" t="s">
-        <v>252</v>
       </c>
       <c r="E131"/>
       <c r="F131">
@@ -9674,10 +9801,10 @@
         <v>38</v>
       </c>
       <c r="C132" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" t="s">
         <v>251</v>
-      </c>
-      <c r="D132" t="s">
-        <v>252</v>
       </c>
       <c r="E132"/>
       <c r="F132">
@@ -9692,10 +9819,10 @@
         <v>35</v>
       </c>
       <c r="C133" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" t="s">
         <v>251</v>
-      </c>
-      <c r="D133" t="s">
-        <v>252</v>
       </c>
       <c r="E133"/>
       <c r="F133">
@@ -9710,10 +9837,10 @@
         <v>38</v>
       </c>
       <c r="C134" t="s">
+        <v>250</v>
+      </c>
+      <c r="D134" t="s">
         <v>251</v>
-      </c>
-      <c r="D134" t="s">
-        <v>252</v>
       </c>
       <c r="E134"/>
       <c r="F134">
@@ -9728,10 +9855,10 @@
         <v>35</v>
       </c>
       <c r="C135" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" t="s">
         <v>251</v>
-      </c>
-      <c r="D135" t="s">
-        <v>252</v>
       </c>
       <c r="E135"/>
       <c r="F135">
@@ -9746,10 +9873,10 @@
         <v>38</v>
       </c>
       <c r="C136" t="s">
+        <v>250</v>
+      </c>
+      <c r="D136" t="s">
         <v>251</v>
-      </c>
-      <c r="D136" t="s">
-        <v>252</v>
       </c>
       <c r="E136"/>
       <c r="F136">
@@ -9764,10 +9891,10 @@
         <v>35</v>
       </c>
       <c r="C137" t="s">
+        <v>250</v>
+      </c>
+      <c r="D137" t="s">
         <v>251</v>
-      </c>
-      <c r="D137" t="s">
-        <v>252</v>
       </c>
       <c r="E137"/>
       <c r="F137">
@@ -9782,10 +9909,10 @@
         <v>38</v>
       </c>
       <c r="C138" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" t="s">
         <v>251</v>
-      </c>
-      <c r="D138" t="s">
-        <v>252</v>
       </c>
       <c r="E138"/>
       <c r="F138">
@@ -9800,10 +9927,10 @@
         <v>35</v>
       </c>
       <c r="C139" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" t="s">
         <v>251</v>
-      </c>
-      <c r="D139" t="s">
-        <v>252</v>
       </c>
       <c r="E139"/>
       <c r="F139">
@@ -9818,10 +9945,10 @@
         <v>38</v>
       </c>
       <c r="C140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" t="s">
         <v>251</v>
-      </c>
-      <c r="D140" t="s">
-        <v>252</v>
       </c>
       <c r="E140"/>
       <c r="F140">
@@ -9836,10 +9963,10 @@
         <v>35</v>
       </c>
       <c r="C141" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" t="s">
         <v>251</v>
-      </c>
-      <c r="D141" t="s">
-        <v>252</v>
       </c>
       <c r="E141"/>
       <c r="F141">
@@ -9854,10 +9981,10 @@
         <v>38</v>
       </c>
       <c r="C142" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" t="s">
         <v>251</v>
-      </c>
-      <c r="D142" t="s">
-        <v>252</v>
       </c>
       <c r="E142"/>
       <c r="F142">
@@ -9872,10 +9999,10 @@
         <v>35</v>
       </c>
       <c r="C143" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" t="s">
         <v>251</v>
-      </c>
-      <c r="D143" t="s">
-        <v>252</v>
       </c>
       <c r="E143"/>
       <c r="F143">
@@ -9890,10 +10017,10 @@
         <v>38</v>
       </c>
       <c r="C144" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" t="s">
         <v>251</v>
-      </c>
-      <c r="D144" t="s">
-        <v>252</v>
       </c>
       <c r="E144"/>
       <c r="F144">
@@ -9908,10 +10035,10 @@
         <v>35</v>
       </c>
       <c r="C145" t="s">
+        <v>250</v>
+      </c>
+      <c r="D145" t="s">
         <v>251</v>
-      </c>
-      <c r="D145" t="s">
-        <v>252</v>
       </c>
       <c r="E145"/>
       <c r="F145">
@@ -9926,10 +10053,10 @@
         <v>38</v>
       </c>
       <c r="C146" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" t="s">
         <v>251</v>
-      </c>
-      <c r="D146" t="s">
-        <v>252</v>
       </c>
       <c r="E146"/>
       <c r="F146">
@@ -9944,10 +10071,10 @@
         <v>35</v>
       </c>
       <c r="C147" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" t="s">
         <v>251</v>
-      </c>
-      <c r="D147" t="s">
-        <v>252</v>
       </c>
       <c r="E147"/>
       <c r="F147">
@@ -9962,10 +10089,10 @@
         <v>38</v>
       </c>
       <c r="C148" t="s">
+        <v>250</v>
+      </c>
+      <c r="D148" t="s">
         <v>251</v>
-      </c>
-      <c r="D148" t="s">
-        <v>252</v>
       </c>
       <c r="E148"/>
       <c r="F148">
@@ -9980,10 +10107,10 @@
         <v>35</v>
       </c>
       <c r="C149" t="s">
+        <v>250</v>
+      </c>
+      <c r="D149" t="s">
         <v>251</v>
-      </c>
-      <c r="D149" t="s">
-        <v>252</v>
       </c>
       <c r="E149"/>
       <c r="F149">
@@ -9998,10 +10125,10 @@
         <v>38</v>
       </c>
       <c r="C150" t="s">
+        <v>250</v>
+      </c>
+      <c r="D150" t="s">
         <v>251</v>
-      </c>
-      <c r="D150" t="s">
-        <v>252</v>
       </c>
       <c r="E150"/>
       <c r="F150">
@@ -10016,10 +10143,10 @@
         <v>35</v>
       </c>
       <c r="C151" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" t="s">
         <v>251</v>
-      </c>
-      <c r="D151" t="s">
-        <v>252</v>
       </c>
       <c r="E151"/>
       <c r="F151">
@@ -10034,10 +10161,10 @@
         <v>38</v>
       </c>
       <c r="C152" t="s">
+        <v>250</v>
+      </c>
+      <c r="D152" t="s">
         <v>251</v>
-      </c>
-      <c r="D152" t="s">
-        <v>252</v>
       </c>
       <c r="E152"/>
       <c r="F152">
@@ -10052,10 +10179,10 @@
         <v>35</v>
       </c>
       <c r="C153" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" t="s">
         <v>251</v>
-      </c>
-      <c r="D153" t="s">
-        <v>252</v>
       </c>
       <c r="E153"/>
       <c r="F153">
@@ -10070,10 +10197,10 @@
         <v>38</v>
       </c>
       <c r="C154" t="s">
+        <v>250</v>
+      </c>
+      <c r="D154" t="s">
         <v>251</v>
-      </c>
-      <c r="D154" t="s">
-        <v>252</v>
       </c>
       <c r="E154"/>
       <c r="F154">
@@ -10088,10 +10215,10 @@
         <v>35</v>
       </c>
       <c r="C155" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" t="s">
         <v>251</v>
-      </c>
-      <c r="D155" t="s">
-        <v>252</v>
       </c>
       <c r="E155"/>
       <c r="F155">
@@ -10106,10 +10233,10 @@
         <v>38</v>
       </c>
       <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
         <v>251</v>
-      </c>
-      <c r="D156" t="s">
-        <v>252</v>
       </c>
       <c r="E156"/>
       <c r="F156">
@@ -10124,10 +10251,10 @@
         <v>35</v>
       </c>
       <c r="C157" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" t="s">
         <v>251</v>
-      </c>
-      <c r="D157" t="s">
-        <v>252</v>
       </c>
       <c r="E157"/>
       <c r="F157">
@@ -10142,10 +10269,10 @@
         <v>38</v>
       </c>
       <c r="C158" t="s">
+        <v>250</v>
+      </c>
+      <c r="D158" t="s">
         <v>251</v>
-      </c>
-      <c r="D158" t="s">
-        <v>252</v>
       </c>
       <c r="E158"/>
       <c r="F158">
@@ -10160,10 +10287,10 @@
         <v>35</v>
       </c>
       <c r="C159" t="s">
+        <v>250</v>
+      </c>
+      <c r="D159" t="s">
         <v>251</v>
-      </c>
-      <c r="D159" t="s">
-        <v>252</v>
       </c>
       <c r="E159"/>
       <c r="F159">
@@ -10178,10 +10305,10 @@
         <v>38</v>
       </c>
       <c r="C160" t="s">
+        <v>250</v>
+      </c>
+      <c r="D160" t="s">
         <v>251</v>
-      </c>
-      <c r="D160" t="s">
-        <v>252</v>
       </c>
       <c r="E160"/>
       <c r="F160">
@@ -10196,10 +10323,10 @@
         <v>35</v>
       </c>
       <c r="C161" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" t="s">
         <v>251</v>
-      </c>
-      <c r="D161" t="s">
-        <v>252</v>
       </c>
       <c r="E161"/>
       <c r="F161">
@@ -10214,10 +10341,10 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
+        <v>250</v>
+      </c>
+      <c r="D162" t="s">
         <v>251</v>
-      </c>
-      <c r="D162" t="s">
-        <v>252</v>
       </c>
       <c r="E162"/>
       <c r="F162">
@@ -10232,10 +10359,10 @@
         <v>35</v>
       </c>
       <c r="C163" t="s">
+        <v>250</v>
+      </c>
+      <c r="D163" t="s">
         <v>251</v>
-      </c>
-      <c r="D163" t="s">
-        <v>252</v>
       </c>
       <c r="E163"/>
       <c r="F163">
@@ -10250,10 +10377,10 @@
         <v>38</v>
       </c>
       <c r="C164" t="s">
+        <v>250</v>
+      </c>
+      <c r="D164" t="s">
         <v>251</v>
-      </c>
-      <c r="D164" t="s">
-        <v>252</v>
       </c>
       <c r="E164"/>
       <c r="F164">
@@ -10268,10 +10395,10 @@
         <v>35</v>
       </c>
       <c r="C165" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" t="s">
         <v>251</v>
-      </c>
-      <c r="D165" t="s">
-        <v>252</v>
       </c>
       <c r="E165"/>
       <c r="F165">
@@ -10286,10 +10413,10 @@
         <v>38</v>
       </c>
       <c r="C166" t="s">
+        <v>250</v>
+      </c>
+      <c r="D166" t="s">
         <v>251</v>
-      </c>
-      <c r="D166" t="s">
-        <v>252</v>
       </c>
       <c r="E166"/>
       <c r="F166">
@@ -10304,10 +10431,10 @@
         <v>35</v>
       </c>
       <c r="C167" t="s">
+        <v>250</v>
+      </c>
+      <c r="D167" t="s">
         <v>251</v>
-      </c>
-      <c r="D167" t="s">
-        <v>252</v>
       </c>
       <c r="E167"/>
       <c r="F167">
@@ -10322,10 +10449,10 @@
         <v>38</v>
       </c>
       <c r="C168" t="s">
+        <v>250</v>
+      </c>
+      <c r="D168" t="s">
         <v>251</v>
-      </c>
-      <c r="D168" t="s">
-        <v>252</v>
       </c>
       <c r="E168"/>
       <c r="F168">
@@ -10340,10 +10467,10 @@
         <v>35</v>
       </c>
       <c r="C169" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" t="s">
         <v>251</v>
-      </c>
-      <c r="D169" t="s">
-        <v>252</v>
       </c>
       <c r="E169"/>
       <c r="F169">
@@ -10358,10 +10485,10 @@
         <v>38</v>
       </c>
       <c r="C170" t="s">
+        <v>250</v>
+      </c>
+      <c r="D170" t="s">
         <v>251</v>
-      </c>
-      <c r="D170" t="s">
-        <v>252</v>
       </c>
       <c r="E170"/>
       <c r="F170">
@@ -10376,10 +10503,10 @@
         <v>35</v>
       </c>
       <c r="C171" t="s">
+        <v>250</v>
+      </c>
+      <c r="D171" t="s">
         <v>251</v>
-      </c>
-      <c r="D171" t="s">
-        <v>252</v>
       </c>
       <c r="E171"/>
       <c r="F171">
@@ -10394,10 +10521,10 @@
         <v>38</v>
       </c>
       <c r="C172" t="s">
+        <v>250</v>
+      </c>
+      <c r="D172" t="s">
         <v>251</v>
-      </c>
-      <c r="D172" t="s">
-        <v>252</v>
       </c>
       <c r="E172"/>
       <c r="F172">
@@ -10412,10 +10539,10 @@
         <v>35</v>
       </c>
       <c r="C173" t="s">
+        <v>250</v>
+      </c>
+      <c r="D173" t="s">
         <v>251</v>
-      </c>
-      <c r="D173" t="s">
-        <v>252</v>
       </c>
       <c r="E173"/>
       <c r="F173">
@@ -10430,10 +10557,10 @@
         <v>38</v>
       </c>
       <c r="C174" t="s">
+        <v>250</v>
+      </c>
+      <c r="D174" t="s">
         <v>251</v>
-      </c>
-      <c r="D174" t="s">
-        <v>252</v>
       </c>
       <c r="E174"/>
       <c r="F174">
@@ -10448,10 +10575,10 @@
         <v>35</v>
       </c>
       <c r="C175" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" t="s">
         <v>251</v>
-      </c>
-      <c r="D175" t="s">
-        <v>252</v>
       </c>
       <c r="E175"/>
       <c r="F175">
@@ -10466,10 +10593,10 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
+        <v>250</v>
+      </c>
+      <c r="D176" t="s">
         <v>251</v>
-      </c>
-      <c r="D176" t="s">
-        <v>252</v>
       </c>
       <c r="E176"/>
       <c r="F176">
@@ -10484,10 +10611,10 @@
         <v>35</v>
       </c>
       <c r="C177" t="s">
+        <v>250</v>
+      </c>
+      <c r="D177" t="s">
         <v>251</v>
-      </c>
-      <c r="D177" t="s">
-        <v>252</v>
       </c>
       <c r="E177"/>
       <c r="F177">
@@ -10502,10 +10629,10 @@
         <v>38</v>
       </c>
       <c r="C178" t="s">
+        <v>250</v>
+      </c>
+      <c r="D178" t="s">
         <v>251</v>
-      </c>
-      <c r="D178" t="s">
-        <v>252</v>
       </c>
       <c r="E178"/>
       <c r="F178">
@@ -10520,10 +10647,10 @@
         <v>35</v>
       </c>
       <c r="C179" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" t="s">
         <v>251</v>
-      </c>
-      <c r="D179" t="s">
-        <v>252</v>
       </c>
       <c r="E179"/>
       <c r="F179">
@@ -10538,10 +10665,10 @@
         <v>38</v>
       </c>
       <c r="C180" t="s">
+        <v>250</v>
+      </c>
+      <c r="D180" t="s">
         <v>251</v>
-      </c>
-      <c r="D180" t="s">
-        <v>252</v>
       </c>
       <c r="E180"/>
       <c r="F180">
@@ -10556,10 +10683,10 @@
         <v>35</v>
       </c>
       <c r="C181" t="s">
+        <v>250</v>
+      </c>
+      <c r="D181" t="s">
         <v>251</v>
-      </c>
-      <c r="D181" t="s">
-        <v>252</v>
       </c>
       <c r="E181"/>
       <c r="F181">
@@ -10574,10 +10701,10 @@
         <v>38</v>
       </c>
       <c r="C182" t="s">
+        <v>250</v>
+      </c>
+      <c r="D182" t="s">
         <v>251</v>
-      </c>
-      <c r="D182" t="s">
-        <v>252</v>
       </c>
       <c r="E182"/>
       <c r="F182">
@@ -10592,10 +10719,10 @@
         <v>35</v>
       </c>
       <c r="C183" t="s">
+        <v>250</v>
+      </c>
+      <c r="D183" t="s">
         <v>251</v>
-      </c>
-      <c r="D183" t="s">
-        <v>252</v>
       </c>
       <c r="E183"/>
       <c r="F183">
@@ -10610,10 +10737,10 @@
         <v>38</v>
       </c>
       <c r="C184" t="s">
+        <v>250</v>
+      </c>
+      <c r="D184" t="s">
         <v>251</v>
-      </c>
-      <c r="D184" t="s">
-        <v>252</v>
       </c>
       <c r="E184"/>
       <c r="F184">
@@ -10628,10 +10755,10 @@
         <v>35</v>
       </c>
       <c r="C185" t="s">
+        <v>250</v>
+      </c>
+      <c r="D185" t="s">
         <v>251</v>
-      </c>
-      <c r="D185" t="s">
-        <v>252</v>
       </c>
       <c r="E185"/>
       <c r="F185">
@@ -10646,10 +10773,10 @@
         <v>38</v>
       </c>
       <c r="C186" t="s">
+        <v>250</v>
+      </c>
+      <c r="D186" t="s">
         <v>251</v>
-      </c>
-      <c r="D186" t="s">
-        <v>252</v>
       </c>
       <c r="E186"/>
       <c r="F186">
@@ -10664,10 +10791,10 @@
         <v>35</v>
       </c>
       <c r="C187" t="s">
+        <v>250</v>
+      </c>
+      <c r="D187" t="s">
         <v>251</v>
-      </c>
-      <c r="D187" t="s">
-        <v>252</v>
       </c>
       <c r="E187"/>
       <c r="F187">
@@ -10682,10 +10809,10 @@
         <v>38</v>
       </c>
       <c r="C188" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" t="s">
         <v>251</v>
-      </c>
-      <c r="D188" t="s">
-        <v>252</v>
       </c>
       <c r="E188"/>
       <c r="F188">
@@ -10700,10 +10827,10 @@
         <v>35</v>
       </c>
       <c r="C189" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" t="s">
         <v>251</v>
-      </c>
-      <c r="D189" t="s">
-        <v>252</v>
       </c>
       <c r="E189"/>
       <c r="F189">
@@ -10718,10 +10845,10 @@
         <v>38</v>
       </c>
       <c r="C190" t="s">
+        <v>250</v>
+      </c>
+      <c r="D190" t="s">
         <v>251</v>
-      </c>
-      <c r="D190" t="s">
-        <v>252</v>
       </c>
       <c r="E190"/>
       <c r="F190">
@@ -10736,10 +10863,10 @@
         <v>35</v>
       </c>
       <c r="C191" t="s">
+        <v>250</v>
+      </c>
+      <c r="D191" t="s">
         <v>251</v>
-      </c>
-      <c r="D191" t="s">
-        <v>252</v>
       </c>
       <c r="E191"/>
       <c r="F191">
@@ -10754,10 +10881,10 @@
         <v>38</v>
       </c>
       <c r="C192" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192" t="s">
         <v>251</v>
-      </c>
-      <c r="D192" t="s">
-        <v>252</v>
       </c>
       <c r="E192"/>
       <c r="F192">
@@ -10772,10 +10899,10 @@
         <v>35</v>
       </c>
       <c r="C193" t="s">
+        <v>250</v>
+      </c>
+      <c r="D193" t="s">
         <v>251</v>
-      </c>
-      <c r="D193" t="s">
-        <v>252</v>
       </c>
       <c r="E193"/>
       <c r="F193">
@@ -10790,10 +10917,10 @@
         <v>38</v>
       </c>
       <c r="C194" t="s">
+        <v>250</v>
+      </c>
+      <c r="D194" t="s">
         <v>251</v>
-      </c>
-      <c r="D194" t="s">
-        <v>252</v>
       </c>
       <c r="E194"/>
       <c r="F194">
@@ -10808,10 +10935,10 @@
         <v>35</v>
       </c>
       <c r="C195" t="s">
+        <v>250</v>
+      </c>
+      <c r="D195" t="s">
         <v>251</v>
-      </c>
-      <c r="D195" t="s">
-        <v>252</v>
       </c>
       <c r="E195"/>
       <c r="F195">
@@ -10826,10 +10953,10 @@
         <v>38</v>
       </c>
       <c r="C196" t="s">
+        <v>250</v>
+      </c>
+      <c r="D196" t="s">
         <v>251</v>
-      </c>
-      <c r="D196" t="s">
-        <v>252</v>
       </c>
       <c r="E196"/>
       <c r="F196">
@@ -10844,10 +10971,10 @@
         <v>35</v>
       </c>
       <c r="C197" t="s">
+        <v>250</v>
+      </c>
+      <c r="D197" t="s">
         <v>251</v>
-      </c>
-      <c r="D197" t="s">
-        <v>252</v>
       </c>
       <c r="E197"/>
       <c r="F197">
@@ -10862,10 +10989,10 @@
         <v>38</v>
       </c>
       <c r="C198" t="s">
+        <v>250</v>
+      </c>
+      <c r="D198" t="s">
         <v>251</v>
-      </c>
-      <c r="D198" t="s">
-        <v>252</v>
       </c>
       <c r="E198"/>
       <c r="F198">
@@ -10880,10 +11007,10 @@
         <v>35</v>
       </c>
       <c r="C199" t="s">
+        <v>250</v>
+      </c>
+      <c r="D199" t="s">
         <v>251</v>
-      </c>
-      <c r="D199" t="s">
-        <v>252</v>
       </c>
       <c r="E199"/>
       <c r="F199">
@@ -10898,10 +11025,10 @@
         <v>38</v>
       </c>
       <c r="C200" t="s">
+        <v>250</v>
+      </c>
+      <c r="D200" t="s">
         <v>251</v>
-      </c>
-      <c r="D200" t="s">
-        <v>252</v>
       </c>
       <c r="E200"/>
       <c r="F200">
@@ -10916,10 +11043,10 @@
         <v>35</v>
       </c>
       <c r="C201" t="s">
+        <v>250</v>
+      </c>
+      <c r="D201" t="s">
         <v>251</v>
-      </c>
-      <c r="D201" t="s">
-        <v>252</v>
       </c>
       <c r="E201"/>
       <c r="F201">
@@ -10934,10 +11061,10 @@
         <v>38</v>
       </c>
       <c r="C202" t="s">
+        <v>250</v>
+      </c>
+      <c r="D202" t="s">
         <v>251</v>
-      </c>
-      <c r="D202" t="s">
-        <v>252</v>
       </c>
       <c r="E202"/>
       <c r="F202">
@@ -10952,10 +11079,10 @@
         <v>35</v>
       </c>
       <c r="C203" t="s">
+        <v>250</v>
+      </c>
+      <c r="D203" t="s">
         <v>251</v>
-      </c>
-      <c r="D203" t="s">
-        <v>252</v>
       </c>
       <c r="E203"/>
       <c r="F203">
@@ -10970,10 +11097,10 @@
         <v>38</v>
       </c>
       <c r="C204" t="s">
+        <v>250</v>
+      </c>
+      <c r="D204" t="s">
         <v>251</v>
-      </c>
-      <c r="D204" t="s">
-        <v>252</v>
       </c>
       <c r="E204"/>
       <c r="F204">
@@ -10988,10 +11115,10 @@
         <v>35</v>
       </c>
       <c r="C205" t="s">
+        <v>250</v>
+      </c>
+      <c r="D205" t="s">
         <v>251</v>
-      </c>
-      <c r="D205" t="s">
-        <v>252</v>
       </c>
       <c r="E205"/>
       <c r="F205">
@@ -11006,10 +11133,10 @@
         <v>38</v>
       </c>
       <c r="C206" t="s">
+        <v>250</v>
+      </c>
+      <c r="D206" t="s">
         <v>251</v>
-      </c>
-      <c r="D206" t="s">
-        <v>252</v>
       </c>
       <c r="E206"/>
       <c r="F206">
@@ -11024,10 +11151,10 @@
         <v>35</v>
       </c>
       <c r="C207" t="s">
+        <v>250</v>
+      </c>
+      <c r="D207" t="s">
         <v>251</v>
-      </c>
-      <c r="D207" t="s">
-        <v>252</v>
       </c>
       <c r="E207"/>
       <c r="F207">
@@ -11042,10 +11169,10 @@
         <v>38</v>
       </c>
       <c r="C208" t="s">
+        <v>250</v>
+      </c>
+      <c r="D208" t="s">
         <v>251</v>
-      </c>
-      <c r="D208" t="s">
-        <v>252</v>
       </c>
       <c r="E208"/>
       <c r="F208">
@@ -11060,10 +11187,10 @@
         <v>35</v>
       </c>
       <c r="C209" t="s">
+        <v>250</v>
+      </c>
+      <c r="D209" t="s">
         <v>251</v>
-      </c>
-      <c r="D209" t="s">
-        <v>252</v>
       </c>
       <c r="E209"/>
       <c r="F209">
@@ -11078,10 +11205,10 @@
         <v>38</v>
       </c>
       <c r="C210" t="s">
+        <v>250</v>
+      </c>
+      <c r="D210" t="s">
         <v>251</v>
-      </c>
-      <c r="D210" t="s">
-        <v>252</v>
       </c>
       <c r="E210"/>
       <c r="F210">
@@ -11096,10 +11223,10 @@
         <v>35</v>
       </c>
       <c r="C211" t="s">
+        <v>250</v>
+      </c>
+      <c r="D211" t="s">
         <v>251</v>
-      </c>
-      <c r="D211" t="s">
-        <v>252</v>
       </c>
       <c r="E211"/>
       <c r="F211">
@@ -11114,10 +11241,10 @@
         <v>38</v>
       </c>
       <c r="C212" t="s">
+        <v>250</v>
+      </c>
+      <c r="D212" t="s">
         <v>251</v>
-      </c>
-      <c r="D212" t="s">
-        <v>252</v>
       </c>
       <c r="E212"/>
       <c r="F212">
@@ -11132,10 +11259,10 @@
         <v>35</v>
       </c>
       <c r="C213" t="s">
+        <v>250</v>
+      </c>
+      <c r="D213" t="s">
         <v>251</v>
-      </c>
-      <c r="D213" t="s">
-        <v>252</v>
       </c>
       <c r="E213"/>
       <c r="F213">
@@ -11150,10 +11277,10 @@
         <v>38</v>
       </c>
       <c r="C214" t="s">
+        <v>250</v>
+      </c>
+      <c r="D214" t="s">
         <v>251</v>
-      </c>
-      <c r="D214" t="s">
-        <v>252</v>
       </c>
       <c r="E214"/>
       <c r="F214">
@@ -11168,10 +11295,10 @@
         <v>35</v>
       </c>
       <c r="C215" t="s">
+        <v>250</v>
+      </c>
+      <c r="D215" t="s">
         <v>251</v>
-      </c>
-      <c r="D215" t="s">
-        <v>252</v>
       </c>
       <c r="E215"/>
       <c r="F215">
@@ -11186,10 +11313,10 @@
         <v>38</v>
       </c>
       <c r="C216" t="s">
+        <v>250</v>
+      </c>
+      <c r="D216" t="s">
         <v>251</v>
-      </c>
-      <c r="D216" t="s">
-        <v>252</v>
       </c>
       <c r="E216"/>
       <c r="F216">
@@ -11204,10 +11331,10 @@
         <v>35</v>
       </c>
       <c r="C217" t="s">
+        <v>250</v>
+      </c>
+      <c r="D217" t="s">
         <v>251</v>
-      </c>
-      <c r="D217" t="s">
-        <v>252</v>
       </c>
       <c r="E217"/>
       <c r="F217">
@@ -11222,10 +11349,10 @@
         <v>38</v>
       </c>
       <c r="C218" t="s">
+        <v>250</v>
+      </c>
+      <c r="D218" t="s">
         <v>251</v>
-      </c>
-      <c r="D218" t="s">
-        <v>252</v>
       </c>
       <c r="E218"/>
       <c r="F218">
@@ -11240,10 +11367,10 @@
         <v>35</v>
       </c>
       <c r="C219" t="s">
+        <v>250</v>
+      </c>
+      <c r="D219" t="s">
         <v>251</v>
-      </c>
-      <c r="D219" t="s">
-        <v>252</v>
       </c>
       <c r="E219"/>
       <c r="F219">
@@ -11258,10 +11385,10 @@
         <v>38</v>
       </c>
       <c r="C220" t="s">
+        <v>250</v>
+      </c>
+      <c r="D220" t="s">
         <v>251</v>
-      </c>
-      <c r="D220" t="s">
-        <v>252</v>
       </c>
       <c r="E220"/>
       <c r="F220">
@@ -11276,10 +11403,10 @@
         <v>35</v>
       </c>
       <c r="C221" t="s">
+        <v>250</v>
+      </c>
+      <c r="D221" t="s">
         <v>251</v>
-      </c>
-      <c r="D221" t="s">
-        <v>252</v>
       </c>
       <c r="E221"/>
       <c r="F221">
@@ -11294,10 +11421,10 @@
         <v>38</v>
       </c>
       <c r="C222" t="s">
+        <v>250</v>
+      </c>
+      <c r="D222" t="s">
         <v>251</v>
-      </c>
-      <c r="D222" t="s">
-        <v>252</v>
       </c>
       <c r="E222"/>
       <c r="F222">
@@ -11312,10 +11439,10 @@
         <v>35</v>
       </c>
       <c r="C223" t="s">
+        <v>250</v>
+      </c>
+      <c r="D223" t="s">
         <v>251</v>
-      </c>
-      <c r="D223" t="s">
-        <v>252</v>
       </c>
       <c r="E223"/>
       <c r="F223">
@@ -11330,10 +11457,10 @@
         <v>38</v>
       </c>
       <c r="C224" t="s">
+        <v>250</v>
+      </c>
+      <c r="D224" t="s">
         <v>251</v>
-      </c>
-      <c r="D224" t="s">
-        <v>252</v>
       </c>
       <c r="E224"/>
       <c r="F224">
@@ -11348,10 +11475,10 @@
         <v>35</v>
       </c>
       <c r="C225" t="s">
+        <v>250</v>
+      </c>
+      <c r="D225" t="s">
         <v>251</v>
-      </c>
-      <c r="D225" t="s">
-        <v>252</v>
       </c>
       <c r="E225"/>
       <c r="F225">
@@ -11366,10 +11493,10 @@
         <v>38</v>
       </c>
       <c r="C226" t="s">
+        <v>250</v>
+      </c>
+      <c r="D226" t="s">
         <v>251</v>
-      </c>
-      <c r="D226" t="s">
-        <v>252</v>
       </c>
       <c r="E226"/>
       <c r="F226">
@@ -11384,10 +11511,10 @@
         <v>35</v>
       </c>
       <c r="C227" t="s">
+        <v>250</v>
+      </c>
+      <c r="D227" t="s">
         <v>251</v>
-      </c>
-      <c r="D227" t="s">
-        <v>252</v>
       </c>
       <c r="E227"/>
       <c r="F227">
@@ -11402,10 +11529,10 @@
         <v>38</v>
       </c>
       <c r="C228" t="s">
+        <v>250</v>
+      </c>
+      <c r="D228" t="s">
         <v>251</v>
-      </c>
-      <c r="D228" t="s">
-        <v>252</v>
       </c>
       <c r="E228"/>
       <c r="F228">
@@ -11420,10 +11547,10 @@
         <v>35</v>
       </c>
       <c r="C229" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E229"/>
       <c r="F229">
@@ -11438,10 +11565,10 @@
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E230"/>
       <c r="F230">
@@ -11456,10 +11583,10 @@
         <v>35</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D231" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E231"/>
       <c r="F231">
@@ -11474,10 +11601,10 @@
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E232"/>
       <c r="F232">
@@ -11492,10 +11619,10 @@
         <v>35</v>
       </c>
       <c r="C233" t="s">
+        <v>253</v>
+      </c>
+      <c r="D233" t="s">
         <v>254</v>
-      </c>
-      <c r="D233" t="s">
-        <v>255</v>
       </c>
       <c r="E233"/>
       <c r="F233">
@@ -11510,10 +11637,10 @@
         <v>38</v>
       </c>
       <c r="C234" t="s">
+        <v>253</v>
+      </c>
+      <c r="D234" t="s">
         <v>254</v>
-      </c>
-      <c r="D234" t="s">
-        <v>255</v>
       </c>
       <c r="E234"/>
       <c r="F234">
@@ -11528,10 +11655,10 @@
         <v>35</v>
       </c>
       <c r="C235" t="s">
+        <v>253</v>
+      </c>
+      <c r="D235" t="s">
         <v>254</v>
-      </c>
-      <c r="D235" t="s">
-        <v>255</v>
       </c>
       <c r="E235"/>
       <c r="F235">
@@ -11546,10 +11673,10 @@
         <v>38</v>
       </c>
       <c r="C236" t="s">
+        <v>253</v>
+      </c>
+      <c r="D236" t="s">
         <v>254</v>
-      </c>
-      <c r="D236" t="s">
-        <v>255</v>
       </c>
       <c r="E236"/>
       <c r="F236">
@@ -11564,10 +11691,10 @@
         <v>38</v>
       </c>
       <c r="C237" t="s">
+        <v>255</v>
+      </c>
+      <c r="D237" t="s">
         <v>256</v>
-      </c>
-      <c r="D237" t="s">
-        <v>257</v>
       </c>
       <c r="E237"/>
       <c r="F237">
@@ -11582,10 +11709,10 @@
         <v>35</v>
       </c>
       <c r="C238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D238" t="s">
         <v>256</v>
-      </c>
-      <c r="D238" t="s">
-        <v>257</v>
       </c>
       <c r="E238"/>
       <c r="F238">
@@ -11600,10 +11727,10 @@
         <v>35</v>
       </c>
       <c r="C239" t="s">
+        <v>255</v>
+      </c>
+      <c r="D239" t="s">
         <v>256</v>
-      </c>
-      <c r="D239" t="s">
-        <v>257</v>
       </c>
       <c r="E239"/>
       <c r="F239">
@@ -11618,10 +11745,10 @@
         <v>35</v>
       </c>
       <c r="C240" t="s">
+        <v>255</v>
+      </c>
+      <c r="D240" t="s">
         <v>256</v>
-      </c>
-      <c r="D240" t="s">
-        <v>257</v>
       </c>
       <c r="E240"/>
       <c r="F240">
@@ -11636,10 +11763,10 @@
         <v>35</v>
       </c>
       <c r="C241" t="s">
+        <v>255</v>
+      </c>
+      <c r="D241" t="s">
         <v>256</v>
-      </c>
-      <c r="D241" t="s">
-        <v>257</v>
       </c>
       <c r="E241"/>
       <c r="F241">
@@ -11654,10 +11781,10 @@
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E242"/>
       <c r="F242">
@@ -11672,10 +11799,10 @@
         <v>35</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E243"/>
       <c r="F243">
@@ -11690,10 +11817,10 @@
         <v>35</v>
       </c>
       <c r="C244" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D244" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E244"/>
       <c r="F244">
@@ -11708,10 +11835,10 @@
         <v>38</v>
       </c>
       <c r="C245" t="s">
+        <v>257</v>
+      </c>
+      <c r="D245" t="s">
         <v>258</v>
-      </c>
-      <c r="D245" t="s">
-        <v>259</v>
       </c>
       <c r="E245"/>
       <c r="F245">
@@ -11726,10 +11853,10 @@
         <v>38</v>
       </c>
       <c r="C246" t="s">
+        <v>259</v>
+      </c>
+      <c r="D246" t="s">
         <v>260</v>
-      </c>
-      <c r="D246" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="E246"/>
       <c r="F246">
@@ -11744,10 +11871,10 @@
         <v>43</v>
       </c>
       <c r="C247" t="s">
+        <v>261</v>
+      </c>
+      <c r="D247" t="s">
         <v>262</v>
-      </c>
-      <c r="D247" t="s">
-        <v>263</v>
       </c>
       <c r="E247"/>
       <c r="F247">
@@ -11762,10 +11889,10 @@
         <v>38</v>
       </c>
       <c r="C248" t="s">
+        <v>261</v>
+      </c>
+      <c r="D248" t="s">
         <v>262</v>
-      </c>
-      <c r="D248" t="s">
-        <v>263</v>
       </c>
       <c r="E248"/>
       <c r="F248">
@@ -11780,10 +11907,10 @@
         <v>43</v>
       </c>
       <c r="C249" t="s">
+        <v>261</v>
+      </c>
+      <c r="D249" t="s">
         <v>262</v>
-      </c>
-      <c r="D249" t="s">
-        <v>263</v>
       </c>
       <c r="E249"/>
       <c r="F249">
@@ -11798,10 +11925,10 @@
         <v>38</v>
       </c>
       <c r="C250" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" t="s">
         <v>262</v>
-      </c>
-      <c r="D250" t="s">
-        <v>263</v>
       </c>
       <c r="E250" t="s">
         <v>46</v>
@@ -11818,10 +11945,10 @@
         <v>38</v>
       </c>
       <c r="C251" t="s">
+        <v>261</v>
+      </c>
+      <c r="D251" t="s">
         <v>262</v>
-      </c>
-      <c r="D251" t="s">
-        <v>263</v>
       </c>
       <c r="E251"/>
       <c r="F251">
@@ -11836,10 +11963,10 @@
         <v>35</v>
       </c>
       <c r="C252" t="s">
+        <v>261</v>
+      </c>
+      <c r="D252" t="s">
         <v>262</v>
-      </c>
-      <c r="D252" t="s">
-        <v>263</v>
       </c>
       <c r="E252"/>
       <c r="F252">
@@ -11854,10 +11981,10 @@
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E253"/>
       <c r="F253">
@@ -11871,11 +11998,11 @@
       <c r="B254" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C254" s="25" t="s">
+      <c r="C254" t="s">
+        <v>295</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D254" s="27" t="s">
-        <v>297</v>
       </c>
       <c r="F254" s="1">
         <v>66</v>
@@ -11888,11 +12015,11 @@
       <c r="B255" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C255" s="25" t="s">
+      <c r="C255" t="s">
+        <v>297</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D255" s="27" t="s">
-        <v>299</v>
       </c>
       <c r="F255" s="1">
         <v>67</v>
@@ -11905,14 +12032,14 @@
       <c r="B256" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C256" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D256" s="27" t="s">
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F256" s="1">
         <v>67</v>
@@ -11925,11 +12052,11 @@
       <c r="B257" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C257" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D257" s="27" t="s">
-        <v>301</v>
+      <c r="C257" t="s">
+        <v>297</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F257" s="1">
         <v>68</v>
@@ -11942,11 +12069,11 @@
       <c r="B258" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C258" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D258" s="27" t="s">
-        <v>302</v>
+      <c r="C258" t="s">
+        <v>295</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="F258" s="1">
         <v>69</v>
@@ -11959,11 +12086,11 @@
       <c r="B259" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C259" s="25" t="s">
+      <c r="C259" t="s">
+        <v>302</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F259" s="1">
         <v>70</v>
@@ -11976,11 +12103,11 @@
       <c r="B260" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C260" s="25" t="s">
-        <v>303</v>
+      <c r="C260" t="s">
+        <v>302</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F260" s="1">
         <v>71</v>
@@ -11994,10 +12121,10 @@
         <v>38</v>
       </c>
       <c r="C261" t="s">
+        <v>263</v>
+      </c>
+      <c r="D261" t="s">
         <v>264</v>
-      </c>
-      <c r="D261" t="s">
-        <v>265</v>
       </c>
       <c r="E261"/>
       <c r="F261">
@@ -12012,10 +12139,10 @@
         <v>35</v>
       </c>
       <c r="C262" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" t="s">
         <v>264</v>
-      </c>
-      <c r="D262" t="s">
-        <v>265</v>
       </c>
       <c r="E262"/>
       <c r="F262">
@@ -12030,10 +12157,10 @@
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E263"/>
       <c r="F263">
@@ -12048,10 +12175,10 @@
         <v>35</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E264"/>
       <c r="F264">
@@ -12066,10 +12193,10 @@
         <v>38</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E265"/>
       <c r="F265">
@@ -12084,10 +12211,10 @@
         <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E266"/>
       <c r="F266">
@@ -12102,10 +12229,10 @@
         <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E267"/>
       <c r="F267">
@@ -12120,10 +12247,10 @@
         <v>35</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E268"/>
       <c r="F268">
@@ -12138,10 +12265,10 @@
         <v>38</v>
       </c>
       <c r="C269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E269"/>
       <c r="F269">
@@ -12156,10 +12283,10 @@
         <v>35</v>
       </c>
       <c r="C270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E270"/>
       <c r="F270">
@@ -12174,10 +12301,10 @@
         <v>43</v>
       </c>
       <c r="C271" t="s">
+        <v>145</v>
+      </c>
+      <c r="D271" t="s">
         <v>146</v>
-      </c>
-      <c r="D271" t="s">
-        <v>147</v>
       </c>
       <c r="E271"/>
       <c r="F271" s="1">
@@ -12192,10 +12319,10 @@
         <v>38</v>
       </c>
       <c r="C272" t="s">
+        <v>145</v>
+      </c>
+      <c r="D272" t="s">
         <v>146</v>
-      </c>
-      <c r="D272" t="s">
-        <v>147</v>
       </c>
       <c r="E272"/>
       <c r="F272" s="1">
@@ -12210,10 +12337,10 @@
         <v>35</v>
       </c>
       <c r="C273" t="s">
+        <v>145</v>
+      </c>
+      <c r="D273" t="s">
         <v>146</v>
-      </c>
-      <c r="D273" t="s">
-        <v>147</v>
       </c>
       <c r="E273"/>
       <c r="F273" s="1">
@@ -12228,10 +12355,10 @@
         <v>35</v>
       </c>
       <c r="C274" t="s">
+        <v>145</v>
+      </c>
+      <c r="D274" t="s">
         <v>146</v>
-      </c>
-      <c r="D274" t="s">
-        <v>147</v>
       </c>
       <c r="E274"/>
       <c r="F274" s="1">
@@ -12246,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="C275" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D275" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E275"/>
       <c r="F275" s="1">
@@ -12264,10 +12391,10 @@
         <v>35</v>
       </c>
       <c r="C276" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D276" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E276"/>
       <c r="F276" s="1">
@@ -12282,10 +12409,10 @@
         <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D277" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E277"/>
       <c r="F277" s="1">
@@ -12300,10 +12427,10 @@
         <v>38</v>
       </c>
       <c r="C278" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D278" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E278"/>
       <c r="F278" s="1">
@@ -12318,10 +12445,10 @@
         <v>35</v>
       </c>
       <c r="C279" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D279" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E279"/>
       <c r="F279" s="1">
@@ -12336,10 +12463,10 @@
         <v>35</v>
       </c>
       <c r="C280" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D280" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E280"/>
       <c r="F280" s="1">
@@ -12354,10 +12481,10 @@
         <v>35</v>
       </c>
       <c r="C281" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D281" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E281"/>
       <c r="F281" s="1">
@@ -12372,10 +12499,10 @@
         <v>38</v>
       </c>
       <c r="C282" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D282" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E282"/>
       <c r="F282" s="1">
@@ -12393,10 +12520,10 @@
         <v>49</v>
       </c>
       <c r="D283" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F283" s="1">
         <v>55</v>
@@ -12410,10 +12537,10 @@
         <v>43</v>
       </c>
       <c r="C284" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D284" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E284"/>
       <c r="F284" s="1">
@@ -12428,10 +12555,10 @@
         <v>43</v>
       </c>
       <c r="C285" t="s">
+        <v>149</v>
+      </c>
+      <c r="D285" t="s">
         <v>150</v>
-      </c>
-      <c r="D285" t="s">
-        <v>151</v>
       </c>
       <c r="E285"/>
       <c r="F285" s="1">
@@ -12446,10 +12573,10 @@
         <v>38</v>
       </c>
       <c r="C286" t="s">
+        <v>149</v>
+      </c>
+      <c r="D286" t="s">
         <v>150</v>
-      </c>
-      <c r="D286" t="s">
-        <v>151</v>
       </c>
       <c r="E286"/>
       <c r="F286" s="1">
@@ -12464,10 +12591,10 @@
         <v>35</v>
       </c>
       <c r="C287" t="s">
+        <v>149</v>
+      </c>
+      <c r="D287" t="s">
         <v>150</v>
-      </c>
-      <c r="D287" t="s">
-        <v>151</v>
       </c>
       <c r="E287"/>
       <c r="F287" s="1">
@@ -12482,10 +12609,10 @@
         <v>35</v>
       </c>
       <c r="C288" t="s">
+        <v>149</v>
+      </c>
+      <c r="D288" t="s">
         <v>150</v>
-      </c>
-      <c r="D288" t="s">
-        <v>151</v>
       </c>
       <c r="E288"/>
       <c r="F288" s="1">
@@ -12500,10 +12627,10 @@
         <v>35</v>
       </c>
       <c r="C289" t="s">
+        <v>151</v>
+      </c>
+      <c r="D289" t="s">
         <v>152</v>
-      </c>
-      <c r="D289" t="s">
-        <v>153</v>
       </c>
       <c r="E289"/>
       <c r="F289" s="1">
@@ -12518,10 +12645,10 @@
         <v>38</v>
       </c>
       <c r="C290" t="s">
+        <v>151</v>
+      </c>
+      <c r="D290" t="s">
         <v>152</v>
-      </c>
-      <c r="D290" t="s">
-        <v>153</v>
       </c>
       <c r="E290"/>
       <c r="F290" s="1">
@@ -12536,13 +12663,13 @@
         <v>43</v>
       </c>
       <c r="C291" t="s">
+        <v>153</v>
+      </c>
+      <c r="D291" t="s">
         <v>154</v>
       </c>
-      <c r="D291" t="s">
-        <v>155</v>
-      </c>
       <c r="E291" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F291" s="1">
         <v>59</v>
@@ -12556,10 +12683,10 @@
         <v>38</v>
       </c>
       <c r="C292" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D292" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E292"/>
       <c r="F292" s="1">
@@ -12574,10 +12701,10 @@
         <v>43</v>
       </c>
       <c r="C293" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D293" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E293"/>
       <c r="F293" s="1">
@@ -12592,10 +12719,10 @@
         <v>38</v>
       </c>
       <c r="C294" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D294" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E294"/>
       <c r="F294" s="1">
@@ -12610,10 +12737,10 @@
         <v>35</v>
       </c>
       <c r="C295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D295" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E295"/>
       <c r="F295" s="1">
@@ -12628,10 +12755,10 @@
         <v>38</v>
       </c>
       <c r="C296" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D296" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E296"/>
       <c r="F296" s="1">
@@ -12646,10 +12773,10 @@
         <v>35</v>
       </c>
       <c r="C297" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D297" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E297"/>
       <c r="F297" s="1">
@@ -12664,10 +12791,10 @@
         <v>43</v>
       </c>
       <c r="C298" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D298" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E298"/>
       <c r="F298" s="1">
@@ -12682,10 +12809,10 @@
         <v>38</v>
       </c>
       <c r="C299" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D299" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E299"/>
       <c r="F299" s="1">
@@ -12700,10 +12827,10 @@
         <v>35</v>
       </c>
       <c r="C300" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D300" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E300"/>
       <c r="F300" s="1">
@@ -12718,10 +12845,10 @@
         <v>38</v>
       </c>
       <c r="C301" t="s">
+        <v>157</v>
+      </c>
+      <c r="D301" t="s">
         <v>158</v>
-      </c>
-      <c r="D301" t="s">
-        <v>159</v>
       </c>
       <c r="E301"/>
       <c r="F301" s="1">
@@ -12736,10 +12863,10 @@
         <v>38</v>
       </c>
       <c r="C302" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D302" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E302"/>
       <c r="F302" s="1">
@@ -12754,10 +12881,10 @@
         <v>38</v>
       </c>
       <c r="C303" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D303" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E303"/>
       <c r="F303" s="1">
@@ -12772,10 +12899,10 @@
         <v>38</v>
       </c>
       <c r="C304" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D304" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E304"/>
       <c r="F304" s="1">
@@ -12790,10 +12917,10 @@
         <v>38</v>
       </c>
       <c r="C305" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D305" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E305"/>
       <c r="F305" s="1">
@@ -12808,10 +12935,10 @@
         <v>38</v>
       </c>
       <c r="C306" t="s">
+        <v>157</v>
+      </c>
+      <c r="D306" t="s">
         <v>158</v>
-      </c>
-      <c r="D306" t="s">
-        <v>159</v>
       </c>
       <c r="E306"/>
       <c r="F306" s="1">
@@ -12826,10 +12953,10 @@
         <v>38</v>
       </c>
       <c r="C307" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E307"/>
       <c r="F307" s="1">
@@ -12844,10 +12971,10 @@
         <v>38</v>
       </c>
       <c r="C308" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D308" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E308"/>
       <c r="F308" s="1">
@@ -12862,10 +12989,10 @@
         <v>38</v>
       </c>
       <c r="C309" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D309" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E309"/>
       <c r="F309" s="1">
@@ -12880,10 +13007,10 @@
         <v>38</v>
       </c>
       <c r="C310" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D310" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E310"/>
       <c r="F310" s="1">
@@ -12898,10 +13025,10 @@
         <v>38</v>
       </c>
       <c r="C311" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D311" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E311"/>
       <c r="F311" s="1">
@@ -12916,10 +13043,10 @@
         <v>38</v>
       </c>
       <c r="C312" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D312" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E312"/>
       <c r="F312" s="1">
@@ -12934,10 +13061,10 @@
         <v>38</v>
       </c>
       <c r="C313" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D313" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E313"/>
       <c r="F313" s="1">
@@ -12952,10 +13079,10 @@
         <v>38</v>
       </c>
       <c r="C314" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D314" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E314"/>
       <c r="F314" s="1">
@@ -12970,10 +13097,10 @@
         <v>38</v>
       </c>
       <c r="C315" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D315" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E315"/>
       <c r="F315" s="1">
@@ -12988,10 +13115,10 @@
         <v>38</v>
       </c>
       <c r="C316" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D316" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E316"/>
       <c r="F316" s="1">
@@ -13006,10 +13133,10 @@
         <v>38</v>
       </c>
       <c r="C317" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D317" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E317"/>
       <c r="F317" s="1">
@@ -13024,10 +13151,10 @@
         <v>38</v>
       </c>
       <c r="C318" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D318" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E318"/>
       <c r="F318" s="1">
@@ -13042,10 +13169,10 @@
         <v>38</v>
       </c>
       <c r="C319" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D319" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E319"/>
       <c r="F319" s="1">
@@ -13060,10 +13187,10 @@
         <v>38</v>
       </c>
       <c r="C320" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D320" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E320"/>
       <c r="F320" s="1">
@@ -13078,10 +13205,10 @@
         <v>38</v>
       </c>
       <c r="C321" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D321" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E321"/>
       <c r="F321" s="1">
@@ -13096,10 +13223,10 @@
         <v>38</v>
       </c>
       <c r="C322" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D322" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E322"/>
       <c r="F322" s="1">
@@ -13114,10 +13241,10 @@
         <v>38</v>
       </c>
       <c r="C323" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D323" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E323"/>
       <c r="F323" s="1">
@@ -13132,10 +13259,10 @@
         <v>38</v>
       </c>
       <c r="C324" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D324" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E324"/>
       <c r="F324" s="1">
@@ -13150,10 +13277,10 @@
         <v>38</v>
       </c>
       <c r="C325" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D325" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E325"/>
       <c r="F325" s="1">
@@ -13168,10 +13295,10 @@
         <v>38</v>
       </c>
       <c r="C326" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D326" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E326"/>
       <c r="F326" s="1">
@@ -13186,10 +13313,10 @@
         <v>38</v>
       </c>
       <c r="C327" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D327" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E327"/>
       <c r="F327" s="1">
@@ -13204,10 +13331,10 @@
         <v>38</v>
       </c>
       <c r="C328" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D328" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E328"/>
       <c r="F328" s="1">
@@ -13222,10 +13349,10 @@
         <v>38</v>
       </c>
       <c r="C329" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D329" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E329"/>
       <c r="F329" s="1">
@@ -13240,10 +13367,10 @@
         <v>38</v>
       </c>
       <c r="C330" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D330" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E330"/>
       <c r="F330" s="1">
@@ -13258,10 +13385,10 @@
         <v>38</v>
       </c>
       <c r="C331" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D331" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E331"/>
       <c r="F331" s="1">
@@ -13276,10 +13403,10 @@
         <v>38</v>
       </c>
       <c r="C332" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D332" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E332"/>
       <c r="F332" s="1">
@@ -13294,10 +13421,10 @@
         <v>38</v>
       </c>
       <c r="C333" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D333" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E333"/>
       <c r="F333" s="1">
@@ -13312,10 +13439,10 @@
         <v>38</v>
       </c>
       <c r="C334" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D334" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E334"/>
       <c r="F334" s="1">
@@ -13330,10 +13457,10 @@
         <v>38</v>
       </c>
       <c r="C335" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D335" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E335"/>
       <c r="F335" s="1">
@@ -13348,10 +13475,10 @@
         <v>38</v>
       </c>
       <c r="C336" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D336" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E336"/>
       <c r="F336" s="1">
@@ -13366,10 +13493,10 @@
         <v>38</v>
       </c>
       <c r="C337" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D337" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E337"/>
       <c r="F337" s="1">
@@ -13384,10 +13511,10 @@
         <v>38</v>
       </c>
       <c r="C338" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D338" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E338"/>
       <c r="F338" s="1">
@@ -13402,10 +13529,10 @@
         <v>38</v>
       </c>
       <c r="C339" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D339" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E339"/>
       <c r="F339" s="1">
@@ -13420,10 +13547,10 @@
         <v>38</v>
       </c>
       <c r="C340" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D340" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E340"/>
       <c r="F340" s="1">
@@ -13438,10 +13565,10 @@
         <v>38</v>
       </c>
       <c r="C341" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D341" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E341"/>
       <c r="F341" s="1">
@@ -13456,10 +13583,10 @@
         <v>38</v>
       </c>
       <c r="C342" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D342" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E342"/>
       <c r="F342" s="1">
@@ -13474,10 +13601,10 @@
         <v>38</v>
       </c>
       <c r="C343" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D343" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E343"/>
       <c r="F343" s="1">
@@ -13492,10 +13619,10 @@
         <v>38</v>
       </c>
       <c r="C344" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D344" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E344"/>
       <c r="F344" s="1">
@@ -13510,10 +13637,10 @@
         <v>38</v>
       </c>
       <c r="C345" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D345" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E345"/>
       <c r="F345" s="1">
@@ -13528,10 +13655,10 @@
         <v>38</v>
       </c>
       <c r="C346" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D346" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E346"/>
       <c r="F346" s="1">
@@ -13546,10 +13673,10 @@
         <v>38</v>
       </c>
       <c r="C347" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D347" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E347"/>
       <c r="F347" s="1">
@@ -13564,10 +13691,10 @@
         <v>38</v>
       </c>
       <c r="C348" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D348" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E348"/>
       <c r="F348" s="1">
@@ -13582,10 +13709,10 @@
         <v>38</v>
       </c>
       <c r="C349" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D349" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E349"/>
       <c r="F349" s="1">
@@ -13600,10 +13727,10 @@
         <v>38</v>
       </c>
       <c r="C350" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D350" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E350"/>
       <c r="F350" s="1">
@@ -13618,10 +13745,10 @@
         <v>38</v>
       </c>
       <c r="C351" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D351" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E351"/>
       <c r="F351" s="1">
@@ -13636,10 +13763,10 @@
         <v>38</v>
       </c>
       <c r="C352" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D352" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E352"/>
       <c r="F352" s="1">
@@ -13654,10 +13781,10 @@
         <v>38</v>
       </c>
       <c r="C353" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D353" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E353"/>
       <c r="F353" s="1">
@@ -13672,10 +13799,10 @@
         <v>38</v>
       </c>
       <c r="C354" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D354" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E354"/>
       <c r="F354" s="1">
@@ -13690,10 +13817,10 @@
         <v>38</v>
       </c>
       <c r="C355" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D355" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E355"/>
       <c r="F355" s="1">
@@ -13708,10 +13835,10 @@
         <v>38</v>
       </c>
       <c r="C356" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D356" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E356"/>
       <c r="F356" s="1">
@@ -13726,10 +13853,10 @@
         <v>38</v>
       </c>
       <c r="C357" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D357" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E357"/>
       <c r="F357" s="1">
@@ -13744,10 +13871,10 @@
         <v>38</v>
       </c>
       <c r="C358" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D358" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E358"/>
       <c r="F358" s="1">
@@ -13762,10 +13889,10 @@
         <v>43</v>
       </c>
       <c r="C359" t="s">
+        <v>191</v>
+      </c>
+      <c r="D359" t="s">
         <v>192</v>
-      </c>
-      <c r="D359" t="s">
-        <v>193</v>
       </c>
       <c r="E359"/>
       <c r="F359" s="1">
@@ -13780,10 +13907,10 @@
         <v>38</v>
       </c>
       <c r="C360" t="s">
+        <v>193</v>
+      </c>
+      <c r="D360" t="s">
         <v>194</v>
-      </c>
-      <c r="D360" t="s">
-        <v>195</v>
       </c>
       <c r="E360"/>
       <c r="F360" s="1">
@@ -13798,10 +13925,10 @@
         <v>38</v>
       </c>
       <c r="C361" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D361" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E361"/>
       <c r="F361" s="1">
@@ -13816,10 +13943,10 @@
         <v>38</v>
       </c>
       <c r="C362" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D362" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E362"/>
       <c r="F362" s="1">
@@ -13834,10 +13961,10 @@
         <v>38</v>
       </c>
       <c r="C363" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D363" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E363"/>
       <c r="F363" s="1">
@@ -13852,10 +13979,10 @@
         <v>38</v>
       </c>
       <c r="C364" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D364" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E364"/>
       <c r="F364" s="1">
@@ -13870,10 +13997,10 @@
         <v>38</v>
       </c>
       <c r="C365" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D365" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E365"/>
       <c r="F365" s="1">
@@ -13888,10 +14015,10 @@
         <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D366" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E366"/>
       <c r="F366" s="1">
@@ -13906,10 +14033,10 @@
         <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D367" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E367"/>
       <c r="F367" s="1">
@@ -13924,10 +14051,10 @@
         <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D368" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E368"/>
       <c r="F368" s="1">
@@ -13942,10 +14069,10 @@
         <v>38</v>
       </c>
       <c r="C369" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D369" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E369"/>
       <c r="F369" s="1">
@@ -13960,10 +14087,10 @@
         <v>38</v>
       </c>
       <c r="C370" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D370" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E370"/>
       <c r="F370" s="1">
@@ -13978,10 +14105,10 @@
         <v>38</v>
       </c>
       <c r="C371" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D371" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E371"/>
       <c r="F371" s="1">
@@ -13996,10 +14123,10 @@
         <v>38</v>
       </c>
       <c r="C372" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D372" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E372"/>
       <c r="F372" s="1">
@@ -14014,10 +14141,10 @@
         <v>38</v>
       </c>
       <c r="C373" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D373" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E373"/>
       <c r="F373" s="1">
@@ -14032,10 +14159,10 @@
         <v>38</v>
       </c>
       <c r="C374" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D374" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E374"/>
       <c r="F374" s="1">
@@ -14050,10 +14177,10 @@
         <v>38</v>
       </c>
       <c r="C375" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D375" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E375"/>
       <c r="F375" s="1">
@@ -14068,10 +14195,10 @@
         <v>38</v>
       </c>
       <c r="C376" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D376" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E376"/>
       <c r="F376" s="1">
@@ -14086,10 +14213,10 @@
         <v>38</v>
       </c>
       <c r="C377" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D377" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E377"/>
       <c r="F377" s="1">
@@ -14104,10 +14231,10 @@
         <v>38</v>
       </c>
       <c r="C378" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D378" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E378"/>
       <c r="F378" s="1">
@@ -14122,10 +14249,10 @@
         <v>38</v>
       </c>
       <c r="C379" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D379" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E379"/>
       <c r="F379" s="1">
@@ -14140,10 +14267,10 @@
         <v>38</v>
       </c>
       <c r="C380" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D380" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E380"/>
       <c r="F380" s="1">
@@ -14158,10 +14285,10 @@
         <v>38</v>
       </c>
       <c r="C381" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D381" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E381"/>
       <c r="F381" s="1">
@@ -14176,10 +14303,10 @@
         <v>38</v>
       </c>
       <c r="C382" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D382" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E382"/>
       <c r="F382" s="1">
@@ -14194,10 +14321,10 @@
         <v>38</v>
       </c>
       <c r="C383" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D383" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E383"/>
       <c r="F383" s="1">
@@ -14212,10 +14339,10 @@
         <v>38</v>
       </c>
       <c r="C384" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D384" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E384"/>
       <c r="F384" s="1">
@@ -14230,10 +14357,10 @@
         <v>38</v>
       </c>
       <c r="C385" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D385" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E385"/>
       <c r="F385" s="1">
@@ -14248,10 +14375,10 @@
         <v>38</v>
       </c>
       <c r="C386" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D386" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E386"/>
       <c r="F386" s="1">
@@ -14266,10 +14393,10 @@
         <v>38</v>
       </c>
       <c r="C387" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D387" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E387"/>
       <c r="F387" s="1">
@@ -14284,10 +14411,10 @@
         <v>38</v>
       </c>
       <c r="C388" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D388" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E388"/>
       <c r="F388" s="1">
@@ -14302,10 +14429,10 @@
         <v>38</v>
       </c>
       <c r="C389" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D389" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E389"/>
       <c r="F389" s="1">
@@ -14320,10 +14447,10 @@
         <v>38</v>
       </c>
       <c r="C390" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D390" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E390"/>
       <c r="F390" s="1">
@@ -14338,10 +14465,10 @@
         <v>38</v>
       </c>
       <c r="C391" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D391" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E391"/>
       <c r="F391" s="1">
@@ -14356,10 +14483,10 @@
         <v>38</v>
       </c>
       <c r="C392" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D392" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E392"/>
       <c r="F392" s="1">
@@ -14377,10 +14504,10 @@
         <v>42</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F393" s="1">
         <v>55</v>
@@ -14397,10 +14524,10 @@
         <v>42</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F394" s="1">
         <v>55</v>
@@ -14417,10 +14544,10 @@
         <v>42</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F395" s="1">
         <v>55</v>
@@ -14437,10 +14564,10 @@
         <v>42</v>
       </c>
       <c r="D396" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E396" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="F396" s="1">
         <v>64</v>
@@ -14457,10 +14584,10 @@
         <v>42</v>
       </c>
       <c r="D397" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E397" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="E397" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="F397" s="1">
         <v>55</v>
@@ -14477,10 +14604,10 @@
         <v>42</v>
       </c>
       <c r="D398" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E398" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="E398" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="F398" s="1">
         <v>55</v>
@@ -15660,8 +15787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855A5F9-0747-454F-8B8D-45FCC9BB710D}">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17441,14 +17568,14 @@
         <v>74</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -18518,8 +18645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C022B710-EA36-434B-8D2B-11F3DA5A0A19}">
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19713,6 +19840,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -19961,27 +20108,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643D8826-8392-4BEE-9D5B-BD3352057639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19998,29 +20150,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_waiver_list.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_waiver_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scorpion\Scorpion\kagao0\LocalStock\bnl\cv32\repo\program\update_cv32e40pv2_rpt_WW23\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\core-v-docs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490E8BA-2403-488A-BEC9-9C36C85971D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653A3BB-594A-43F9-82F9-1818841C0638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="314">
   <si>
     <t>code cov waiver</t>
   </si>
@@ -973,6 +973,19 @@
   </si>
   <si>
     <t>feccondrow 1241 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv32e40p issue no. </t>
+  </si>
+  <si>
+    <t>#1004</t>
+  </si>
+  <si>
+    <t>#1005</t>
+  </si>
+  <si>
+    <t>#1006
+#1007</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1653,6 +1666,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2079,7 +2096,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A3:D75" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="A3:D75" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="core-v-verif issue no. "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cv32e40p issue no. "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category S/N"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reason" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{DD5C4403-AE4E-4AEB-8C14-4110540FE3EE}" name="configuration applicable for waiver"/>
@@ -2526,7 +2543,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2548,7 +2565,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>129</v>
@@ -2840,6 +2857,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
       <c r="B31">
         <v>28</v>
       </c>
@@ -2851,6 +2869,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
       <c r="B32">
         <v>29</v>
       </c>
@@ -2862,8 +2881,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>281</v>
+      <c r="A33" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -2876,8 +2895,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>281</v>
+      <c r="A34" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="B34">
         <v>31</v>
@@ -2890,8 +2909,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>281</v>
+      <c r="A35" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -2904,6 +2923,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
       <c r="B36">
         <v>33</v>
       </c>
@@ -2915,6 +2935,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
       <c r="B37">
         <v>34</v>
       </c>
@@ -2926,6 +2947,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
       <c r="B38">
         <v>35</v>
       </c>
@@ -2937,6 +2959,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
       <c r="B39">
         <v>36</v>
       </c>
@@ -2948,6 +2971,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
       <c r="B40">
         <v>37</v>
       </c>
@@ -3421,6 +3445,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A78:D78"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -19840,6 +19865,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
@@ -19848,15 +19882,6 @@
     <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20109,6 +20134,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
@@ -20121,14 +20154,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
